--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_137.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_137.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.150268336314848</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A:maj', 'G:maj', 'D:maj'], ['G:maj', 'D:maj', 'C:maj'], ['G:maj', 'C:maj', 'G/3'], ['C:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['E', 'D', 'A'], ['A', 'E', 'D'], ['A', 'D', 'A'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
+          <t>[('0:00:56.816000', '0:01:01.257000'), ('0:00:32.356000', '0:00:37.551000'), ('0:00:05.146000', '0:00:09.474000'), ('0:00:12.446000', '0:00:16.277000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:53.714217', '0:01:07.077301'), ('0:00:47.015260', '0:01:03.507321'), ('0:01:45.425056', '0:01:55.003287'), ('0:00:05.130361', '0:00:10.478662')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.3, 26.86), (12.28, 17.3)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.04, 24.52), (6.3, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2916666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['A:7', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.560725, 10.073922)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(85.5, 90.86)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_241</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3289473684210527</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G', 'C:min', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:54.639000', '0:00:59.554000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(27.963197, 34.290634), (28.450816, 36.229501)]</t>
+          <t>[['E:min', 'A', 'D'], ['B:min', 'E:min', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
+          <t>[('0:00:16.939480', '0:00:19.795536'), ('0:00:38.139299', '0:00:41.982202')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:25.006780', '0:00:29.410731'), ('0:00:23.647300', '0:00:27.266198')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (8.2, 12.66), (38.18, 51.98), (0.78, 5.26)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.42, 26.04), (20.92, 24.02), (226.62, 230.46), (11.24, 15.78)]</t>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(15.3, 17.78)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1689723320158103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2536231884057971</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.967, 18.318)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.8465, 21.381376)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.430672268907563</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['E/3', 'A', 'E/5', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:28.395907', '0:00:41.761111')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj', 'C#:maj'], ['C#:maj', 'G#:7', 'C#:maj', 'G#:maj']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(45.82, 49.08), (44.66, 48.48)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.48, 10.78), (7.92, 10.2)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1595022624434389</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1068840579710145</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(57.777619, 61.864331)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08172043010752689</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/7', 'D/6', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(11.651179, 16.527369)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1109022556390977</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.5, 30.32), (0.78, 23.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(51.641107, 57.139232), (0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
